--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -20,11 +20,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qaz111</t>
+    <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
+    <t>a11111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -393,15 +393,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>137135767</v>
+        <v>13243747617</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -24,7 +24,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a11111</t>
+    <t>qaz111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -398,7 +398,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>13243747617</v>
+        <v>13713576227</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +25,14 @@
   </si>
   <si>
     <t>qaz111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qaz111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hxy123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -404,6 +412,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>18771624141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18688367648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
